--- a/www.eia.gov/electricity/monthly/xls/table_a_4_bcontinued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_4_bcontinued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.4.B. Relative Standard Error for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Commercial Sector by Census Division and State, Year-to-Date through October 2016 (Continued)</t>
+    <t>Commercial Sector by Census Division and State, Year-to-Date through November 2016 (Continued)</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1209,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F4" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4" s="6">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I4" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1270,13 +1270,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
       <c r="H6" s="8">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I6" s="8">
         <v>37</v>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F7" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="8">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="G10" s="8">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>386</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>12</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I11" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F12" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1470,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="8">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F13" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
       <c r="H13" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="8">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="F14" s="8">
         <v>48</v>
@@ -1511,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1528,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F15" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="6">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="I15" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1589,16 +1589,16 @@
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
       </c>
       <c r="H17" s="8">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I17" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>17</v>
       </c>
       <c r="I18" s="8">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F19" s="8">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G20" s="8">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1702,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F21" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I21" s="6">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,16 +1763,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8">
         <v>0</v>
       </c>
       <c r="H23" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I23" s="8">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="8">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F24" s="8">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="G24" s="8">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>846</v>
+        <v>900</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <v>712</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F28" s="6">
         <v>12</v>
@@ -1914,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="8">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F29" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G29" s="8">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1992,10 +1992,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="F31" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2021,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F32" s="8">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F33" s="8">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F34" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>203</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
       </c>
       <c r="H36" s="8">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2166,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="6">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="F37" s="6">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G37" s="6">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="8">
-        <v>293</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="F39" s="8">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="G39" s="8">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="8">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="6">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F40" s="6">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G40" s="6">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="8">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G41" s="8">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="8">
-        <v>285</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="8">
-        <v>118</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="E44" s="8">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="F44" s="8">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G44" s="8">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2398,10 +2398,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F45" s="6">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G45" s="6">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2427,10 +2427,10 @@
         <v>0</v>
       </c>
       <c r="E46" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F46" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G46" s="8">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="8">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F47" s="8">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G47" s="8">
         <v>0</v>
@@ -2468,7 +2468,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="8">
-        <v>66</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="G48" s="8">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="8">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2514,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F49" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="8">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F52" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52" s="6">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2630,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F53" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="8">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="8">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="8">
-        <v>94</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G56" s="6">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G57" s="8">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="8">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G59" s="6">
         <v>0</v>
